--- a/MVPLT/data/曹越奇-打分.xlsx
+++ b/MVPLT/data/曹越奇-打分.xlsx
@@ -1,45 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\MVPLT\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
   <si>
     <t>Real Estate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -62,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,29 +83,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -134,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,34 +414,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>43052</v>
       </c>
       <c r="B2">
@@ -418,37 +453,34 @@
         <v>2.6</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>43094</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3">
+        <v>1.9</v>
+      </c>
+      <c r="D3">
+        <v>2.4</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVPLT/data/曹越奇-打分.xlsx
+++ b/MVPLT/data/曹越奇-打分.xlsx
@@ -414,13 +414,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
@@ -477,6 +480,46 @@
       </c>
       <c r="F3">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B4">
+        <v>1.8</v>
+      </c>
+      <c r="C4">
+        <v>1.4</v>
+      </c>
+      <c r="D4">
+        <v>2.4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1.8</v>
+      </c>
+      <c r="D5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/曹越奇-打分.xlsx
+++ b/MVPLT/data/曹越奇-打分.xlsx
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,6 +522,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1.8</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
